--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Patient&amp;apos;s Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Phone</t>
@@ -28,7 +28,7 @@
     <t># household members</t>
   </si>
   <si>
-    <t>#vouchers</t>
+    <t>Email</t>
   </si>
   <si>
     <t>Request Date</t>
@@ -64,7 +64,7 @@
     <t>How long does the produce last?</t>
   </si>
   <si>
-    <t>FOOD INSECURITY</t>
+    <t>Food Insecurity</t>
   </si>
   <si>
     <t>ZIP Code</t>
@@ -94,6 +94,9 @@
     <t>Test Chan</t>
   </si>
   <si>
+    <t>teilioteaser@gmail.com</t>
+  </si>
+  <si>
     <t>KR</t>
   </si>
   <si>
@@ -104,14 +107,19 @@
   </si>
   <si>
     <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,52 +128,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe2efda"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF548235"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc6e0b4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -178,105 +158,61 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFffff00"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFffff00"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFffff00"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFffff00"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFc6c6c6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -300,31 +236,31 @@
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="ffffff" val="window"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -580,44 +516,44 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="21" width="3.4335714285714283" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="22" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -626,7 +562,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -662,163 +598,84 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="5">
+        <v>923163288336</v>
+      </c>
+      <c r="C2" s="5">
         <v>8714093</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>6</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
-        <v>25569.208854166667</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8">
-        <v>25569.208854166667</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="6">
+        <v>25569.208629270834</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="H2" s="6">
+        <v>25569.208629270834</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="L2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
